--- a/biology/Botanique/Hymenophyllum_cruentum/Hymenophyllum_cruentum.xlsx
+++ b/biology/Botanique/Hymenophyllum_cruentum/Hymenophyllum_cruentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum cruentum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,12 +523,14 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum cruentum appartient au sous-genre Hymenoglossum.
-Cette espèce est décrite une première fois en 1802 par Antonio José Cavanilles à partir d'un exemplaire collecté au Chili à San Carlos par Louis Née[1].
-En 1843,  Karel Bořivoj Presl place cette espèce dans le genre Hymenoglossum : Hymenoglossum cruentum (Cav.) C.Presl[2].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Hymenophyllum cruentum comme espèce représentative du genre Hymenophyllum, sous-genre Hymenoglossum[3].
+Cette espèce est décrite une première fois en 1802 par Antonio José Cavanilles à partir d'un exemplaire collecté au Chili à San Carlos par Louis Née.
+En 1843,  Karel Bořivoj Presl place cette espèce dans le genre Hymenoglossum : Hymenoglossum cruentum (Cav.) C.Presl.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Hymenophyllum cruentum comme espèce représentative du genre Hymenophyllum, sous-genre Hymenoglossum.
 Cette espèce a un synonyme : Hymenoglossum cruentum (Cav.) C.Presl (1843).
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome est fin et long.
 Les frondes, de 10 à 20 cm de long sur 5 à 10 cm de larges ont un limbe simple entier, ovale-lancéolé ou deltoïde-lancéolé. Le pétiole est à peu près de la taille du limbe. Les bords du limbe sont légèrement dentelés.
@@ -581,7 +597,9 @@
           <t>Habitat - distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère est originaire des forêts humides d'Amérique du Sud - Chili, Archipel Juan Fernández, Patagonie - où elle est principalement épiphyte des troncs d'arbres. Elle peut supporter occasionnellement des températures de -5 °C.
 			Hymenophyllum cruentum en compagnie de Hymenophyllum caudiculatum
@@ -614,7 +632,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Antonio José Cavanilles - Descripción de las plantas que D. Antonio Josef Cavanilles demonstró en las lecciones públicas del año 1801 - Volume 1 - Madrid, 1802 - p. 275 - n° 684
